--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_add_to_orgtree.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_add_to_orgtree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70341AE-4508-40DD-B3F0-72D6C1ACB61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C8256-8E54-43B9-A75A-CA8AB50DE83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1360" windowWidth="19200" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="19200" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="617">
   <si>
     <t>OrgString</t>
   </si>
@@ -1706,9 +1706,6 @@
   </si>
   <si>
     <t>문화창작단</t>
-  </si>
-  <si>
-    <t>4.15문화창장단</t>
   </si>
   <si>
     <t>백두산창작단</t>
@@ -1953,7 +1950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1978,7 +1975,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2290,7 +2286,7 @@
   <dimension ref="A1:K403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F403" sqref="F403"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2326,7 +2322,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
@@ -2386,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>562</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2949,7 +2945,7 @@
         <v>438</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2969,7 +2965,7 @@
         <v>438</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2989,10 +2985,10 @@
         <v>529</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -3292,7 +3288,7 @@
         <v>497</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -3332,7 +3328,7 @@
         <v>423</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3371,7 +3367,7 @@
       <c r="F62" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="K62" s="12"/>
+      <c r="K62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
@@ -3460,7 +3456,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>39</v>
@@ -3475,12 +3471,12 @@
         <v>30</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>10</v>
@@ -3492,7 +3488,7 @@
         <v>30</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -3756,7 +3752,7 @@
         <v>269</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -4249,19 +4245,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -4283,7 +4279,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -4295,33 +4291,33 @@
         <v>30</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>594</v>
-      </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
       </c>
@@ -4332,7 +4328,7 @@
         <v>30</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -4405,19 +4401,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -5492,7 +5488,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -5501,12 +5497,12 @@
         <v>0</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>39</v>
@@ -5518,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -5551,11 +5547,11 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>573</v>
-      </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -5599,7 +5595,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -5608,16 +5604,16 @@
         <v>0</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>609</v>
-      </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
       </c>
@@ -5625,12 +5621,12 @@
         <v>0</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>39</v>
@@ -5642,12 +5638,12 @@
         <v>0</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -5656,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -5796,7 +5792,7 @@
         <v>558</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -5810,7 +5806,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -5819,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -6362,7 +6358,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -6371,12 +6367,12 @@
         <v>0</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>39</v>
@@ -6388,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -7171,7 +7167,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -7188,7 +7184,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -7205,7 +7201,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -7681,42 +7677,42 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B323" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E323" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C323" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D323" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E323" s="6" t="s">
-        <v>605</v>
-      </c>
       <c r="F323" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B324" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="C324" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E324" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C324" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D324" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E324" s="6" t="s">
-        <v>605</v>
-      </c>
       <c r="F324" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -8208,7 +8204,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -8220,12 +8216,12 @@
         <v>15</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -8237,12 +8233,12 @@
         <v>15</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -8254,12 +8250,12 @@
         <v>15</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -8271,12 +8267,12 @@
         <v>15</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -8288,12 +8284,12 @@
         <v>15</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -8305,7 +8301,7 @@
         <v>15</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
@@ -8327,10 +8323,10 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B364" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="B364" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -8342,7 +8338,7 @@
         <v>15</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
@@ -8563,7 +8559,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -8580,7 +8576,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B378" s="5" t="s">
         <v>39</v>
@@ -8600,7 +8596,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -8617,7 +8613,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -8770,7 +8766,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>39</v>
@@ -8782,27 +8778,27 @@
         <v>0</v>
       </c>
       <c r="E389" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F389" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="F389" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E390" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C390" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D390" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E390" s="6" t="s">
+      <c r="F390" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="F390" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_add_to_orgtree.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_add_to_orgtree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C8256-8E54-43B9-A75A-CA8AB50DE83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBCFB0D-6060-44F7-BA3D-9F4699380266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="19200" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2285,13 +2285,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="2.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="2.1796875" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.81640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.453125" style="6" customWidth="1"/>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_add_to_orgtree.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_add_to_orgtree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBCFB0D-6060-44F7-BA3D-9F4699380266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F3D7F0-7B05-4D45-BB9D-6AC48347EF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2285,7 +2285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
